--- a/Reports/International Oraganization/Conclusion of International Organization.xlsx
+++ b/Reports/International Oraganization/Conclusion of International Organization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\International Oraganization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E621745-EF9E-48DB-8EBB-8B5BAA1C5F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B561A091-C0F1-47A1-B37F-9257E58557BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05808BCF-E26D-4F45-A024-6432C7E0F328}" name="RawData" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05808BCF-E26D-4F45-A024-6432C7E0F328}" name="RawData" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="43">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1721,7 +1721,7 @@
   </sheetPr>
   <dimension ref="A1:BS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AS6" sqref="AS6:AS7"/>
     </sheetView>
